--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>09.04.-15.04.</t>
+  </si>
+  <si>
+    <t>16.04.-22.04.</t>
   </si>
 </sst>
 </file>
@@ -494,11 +497,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5115" topLeftCell="D1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="R8" sqref="R8"/>
+      <pane xSplit="5115" topLeftCell="H1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -512,10 +515,11 @@
     <col min="14" max="14" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="4"/>
+    <col min="17" max="17" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
@@ -527,7 +531,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -537,7 +541,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -583,8 +587,11 @@
       <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,8 +610,9 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -653,8 +661,11 @@
       <c r="P5" s="9">
         <v>3913.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="9">
+        <v>4531.1000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -703,8 +714,11 @@
       <c r="P6" s="9">
         <v>293.14999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="9">
+        <v>334.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -720,8 +734,9 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,8 +755,9 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -790,8 +806,11 @@
       <c r="P9" s="9">
         <v>2332.61</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="9">
+        <v>2429.8000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -840,8 +859,11 @@
       <c r="P10" s="9">
         <v>141.38</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="9">
+        <v>159.38999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -857,8 +879,9 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -877,8 +900,9 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -927,8 +951,11 @@
       <c r="P13" s="9">
         <v>2654.55</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="9">
+        <v>3043.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -977,8 +1004,11 @@
       <c r="P14" s="9">
         <v>1622.87</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="9">
+        <v>1903.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1027,8 +1057,11 @@
       <c r="P15" s="9">
         <v>158.22</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="9">
+        <v>172.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1077,8 +1110,11 @@
       <c r="P16" s="9">
         <v>74.92</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="9">
+        <v>81.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1094,8 +1130,9 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1114,8 +1151,9 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1164,8 +1202,11 @@
       <c r="P19" s="9">
         <v>1258.5999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="9">
+        <v>1488.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1214,8 +1255,11 @@
       <c r="P20" s="9">
         <v>135.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="9">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1231,8 +1275,9 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1251,8 +1296,9 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="P23" s="9">
         <v>1812.93</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="9">
+        <v>1901.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1350,6 +1399,9 @@
       </c>
       <c r="P24" s="9">
         <v>115.30000000000001</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>133.06</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1409,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>16.04.-22.04.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.04.-29.04.</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +191,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -497,11 +504,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5115" topLeftCell="H1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
+      <pane xSplit="5115" topLeftCell="I1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -516,22 +523,23 @@
     <col min="15" max="15" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="6" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="4"/>
+    <col min="18" max="18" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -541,7 +549,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -590,8 +598,11 @@
       <c r="Q3" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,8 +622,9 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -664,8 +676,11 @@
       <c r="Q5" s="9">
         <v>4531.1000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="9">
+        <v>4734.8899999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -717,8 +732,11 @@
       <c r="Q6" s="9">
         <v>334.87</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="9">
+        <v>350.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -735,8 +753,9 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -756,8 +775,9 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -809,8 +829,11 @@
       <c r="Q9" s="9">
         <v>2429.8000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="9">
+        <v>2514.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -862,8 +885,11 @@
       <c r="Q10" s="9">
         <v>159.38999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="9">
+        <v>163.30999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -880,8 +906,9 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -901,8 +928,9 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -954,8 +982,11 @@
       <c r="Q13" s="9">
         <v>3043.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="9">
+        <v>3311.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1005,10 +1036,13 @@
         <v>1622.87</v>
       </c>
       <c r="Q14" s="9">
-        <v>1903.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1903.3500000000001</v>
+      </c>
+      <c r="R14" s="9">
+        <v>2095.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1060,8 +1094,11 @@
       <c r="Q15" s="9">
         <v>172.27</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="12">
+        <v>194.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1113,8 +1150,11 @@
       <c r="Q16" s="9">
         <v>81.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="9">
+        <v>93.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1131,8 +1171,9 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1152,8 +1193,9 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1205,8 +1247,11 @@
       <c r="Q19" s="9">
         <v>1488.04</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="9">
+        <v>1422.3320000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1258,8 +1303,11 @@
       <c r="Q20" s="9">
         <v>162.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="9">
+        <v>155.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1276,8 +1324,9 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1297,8 +1346,9 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1350,8 +1400,11 @@
       <c r="Q23" s="9">
         <v>1901.73</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="9">
+        <v>1941.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1402,6 +1455,9 @@
       </c>
       <c r="Q24" s="9">
         <v>133.06</v>
+      </c>
+      <c r="R24" s="9">
+        <v>135.42000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1465,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 23.04.-29.04.</t>
+  </si>
+  <si>
+    <t>30.04.-06.05.</t>
   </si>
 </sst>
 </file>
@@ -504,11 +507,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5115" topLeftCell="I1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4125" topLeftCell="G1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -524,10 +527,11 @@
     <col min="16" max="16" width="16.5703125" style="6" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="4"/>
+    <col min="19" max="19" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -539,7 +543,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -549,7 +553,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -601,8 +605,11 @@
       <c r="R3" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,8 +630,9 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -679,8 +687,11 @@
       <c r="R5" s="9">
         <v>4734.8899999999994</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="9">
+        <v>4974.4799999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -735,8 +746,11 @@
       <c r="R6" s="9">
         <v>350.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="9">
+        <v>377.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -754,8 +768,9 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -776,8 +791,9 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -832,8 +848,11 @@
       <c r="R9" s="9">
         <v>2514.39</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="9">
+        <v>2772.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -888,8 +907,11 @@
       <c r="R10" s="9">
         <v>163.30999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="9">
+        <v>178.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -907,8 +929,9 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -929,8 +952,9 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -985,8 +1009,11 @@
       <c r="R13" s="9">
         <v>3311.65</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" s="9">
+        <v>3516.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1041,8 +1068,11 @@
       <c r="R14" s="9">
         <v>2095.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" s="9">
+        <v>2224.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1097,8 +1127,11 @@
       <c r="R15" s="12">
         <v>194.31</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" s="9">
+        <v>218.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1153,8 +1186,11 @@
       <c r="R16" s="9">
         <v>93.89</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="9">
+        <v>106.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1172,8 +1208,9 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1194,8 +1231,9 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1250,8 +1288,11 @@
       <c r="R19" s="9">
         <v>1422.3320000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="9">
+        <v>1456.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1306,8 +1347,11 @@
       <c r="R20" s="9">
         <v>155.71</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="9">
+        <v>159.08000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1325,8 +1369,9 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1347,8 +1392,9 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1403,8 +1449,11 @@
       <c r="R23" s="9">
         <v>1941.74</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" s="9">
+        <v>2149.7600000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1458,6 +1507,9 @@
       </c>
       <c r="R24" s="9">
         <v>135.42000000000002</v>
+      </c>
+      <c r="S24" s="9">
+        <v>146.08000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basil\Dropbox\Stat. Amt\Covid Monitoring\economy_Kreditkarten\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F1B98-F7F8-49B8-983E-AF0A624E0652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="23475" windowHeight="9000"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -97,12 +103,15 @@
   </si>
   <si>
     <t>30.04.-06.05.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07.05. - 13.05.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,12 +209,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -213,14 +223,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,9 +271,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,9 +306,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,9 +358,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,47 +550,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4125" topLeftCell="G1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5110" topLeftCell="K1"/>
+      <selection sqref="A1:H1"/>
+      <selection pane="topRight" activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="45" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -553,7 +602,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -608,8 +657,11 @@
       <c r="S3" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -631,8 +683,9 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -690,8 +743,11 @@
       <c r="S5" s="9">
         <v>4974.4799999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="9">
+        <v>5609.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -749,8 +805,11 @@
       <c r="S6" s="9">
         <v>377.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="9">
+        <v>414.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -769,8 +828,9 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -792,8 +852,9 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -851,8 +912,11 @@
       <c r="S9" s="9">
         <v>2772.17</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" s="9">
+        <v>2443.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -910,8 +974,11 @@
       <c r="S10" s="9">
         <v>178.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" s="9">
+        <v>157.88999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -930,8 +997,9 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -953,8 +1021,9 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1012,8 +1081,11 @@
       <c r="S13" s="9">
         <v>3516.87</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13" s="9">
+        <v>4178.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1071,8 +1143,11 @@
       <c r="S14" s="9">
         <v>2224.44</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14" s="9">
+        <v>2693.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1130,8 +1205,11 @@
       <c r="S15" s="9">
         <v>218.78</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15" s="9">
+        <v>271.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1189,8 +1267,11 @@
       <c r="S16" s="9">
         <v>106.56</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" s="9">
+        <v>131.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1209,8 +1290,9 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1232,8 +1314,9 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1291,8 +1374,11 @@
       <c r="S19" s="9">
         <v>1456.61</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19" s="9">
+        <v>1431.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1350,8 +1436,11 @@
       <c r="S20" s="9">
         <v>159.08000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20" s="9">
+        <v>142.86000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1370,8 +1459,9 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1393,8 +1483,9 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1452,8 +1543,11 @@
       <c r="S23" s="9">
         <v>2149.7600000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23" s="9">
+        <v>1867.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1510,6 +1604,9 @@
       </c>
       <c r="S24" s="9">
         <v>146.08000000000001</v>
+      </c>
+      <c r="T24" s="9">
+        <v>127.52</v>
       </c>
     </row>
   </sheetData>
@@ -1522,24 +1619,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basil\Dropbox\Stat. Amt\Covid Monitoring\economy_Kreditkarten\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F1B98-F7F8-49B8-983E-AF0A624E0652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="23475" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -106,12 +100,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 07.05. - 13.05.</t>
+  </si>
+  <si>
+    <t>14.05. - 20.05.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,7 +212,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,17 +220,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,9 +265,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,26 +300,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,26 +335,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,37 +510,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5110" topLeftCell="K1"/>
-      <selection sqref="A1:H1"/>
-      <selection pane="topRight" activeCell="U22" sqref="U22"/>
+      <pane xSplit="5115" topLeftCell="I1" activePane="topRight"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.453125" style="4"/>
+    <col min="2" max="2" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -592,7 +553,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -602,7 +563,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -660,8 +621,11 @@
       <c r="T3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,8 +648,9 @@
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="13"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -746,8 +711,11 @@
       <c r="T5" s="9">
         <v>5609.81</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U5" s="9">
+        <v>6494.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -808,8 +776,11 @@
       <c r="T6" s="9">
         <v>414.13</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U6" s="9">
+        <v>512.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -829,8 +800,9 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -853,8 +825,9 @@
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -915,8 +888,11 @@
       <c r="T9" s="9">
         <v>2443.91</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U9" s="9">
+        <v>2449.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -977,8 +953,11 @@
       <c r="T10" s="9">
         <v>157.88999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U10" s="9">
+        <v>157.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -998,8 +977,9 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1022,8 +1002,9 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1084,8 +1065,11 @@
       <c r="T13" s="9">
         <v>4178.04</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U13" s="9">
+        <v>5053.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1146,8 +1130,11 @@
       <c r="T14" s="9">
         <v>2693.23</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U14" s="9">
+        <v>3205.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1208,8 +1195,11 @@
       <c r="T15" s="9">
         <v>271.27</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U15" s="9">
+        <v>384.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1270,8 +1260,11 @@
       <c r="T16" s="9">
         <v>131.66</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U16" s="9">
+        <v>184.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1291,8 +1284,9 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1315,8 +1309,9 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1377,8 +1372,11 @@
       <c r="T19" s="9">
         <v>1431.76</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U19" s="9">
+        <v>1441.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1439,8 +1437,11 @@
       <c r="T20" s="9">
         <v>142.86000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U20" s="9">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1460,8 +1461,9 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1484,8 +1486,9 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1546,8 +1549,11 @@
       <c r="T23" s="9">
         <v>1867.59</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U23" s="9">
+        <v>1849.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1607,6 +1613,9 @@
       </c>
       <c r="T24" s="9">
         <v>127.52</v>
+      </c>
+      <c r="U24" s="9">
+        <v>124.19</v>
       </c>
     </row>
   </sheetData>
@@ -1619,24 +1628,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>14.05. - 20.05.</t>
+  </si>
+  <si>
+    <t>21.05. - 27.05.</t>
   </si>
 </sst>
 </file>
@@ -514,12 +517,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5115" topLeftCell="I1" activePane="topRight"/>
+      <pane xSplit="5115" topLeftCell="J1" activePane="topRight"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="T28" sqref="T28"/>
+      <selection pane="topRight" activeCell="N28" sqref="N28:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -537,11 +540,11 @@
     <col min="18" max="18" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="4"/>
+    <col min="21" max="22" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -553,7 +556,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -563,7 +566,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -624,8 +627,11 @@
       <c r="U3" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -649,8 +655,9 @@
       <c r="S4" s="9"/>
       <c r="T4" s="13"/>
       <c r="U4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4" s="9"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -714,8 +721,11 @@
       <c r="U5" s="9">
         <v>6494.41</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5" s="9">
+        <v>6436.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -779,8 +789,11 @@
       <c r="U6" s="9">
         <v>512.88</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6" s="9">
+        <v>498.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -801,8 +814,9 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7" s="9"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -826,8 +840,9 @@
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" s="9"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -891,8 +906,11 @@
       <c r="U9" s="9">
         <v>2449.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9" s="9">
+        <v>2535.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -956,8 +974,11 @@
       <c r="U10" s="9">
         <v>157.51</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" s="9">
+        <v>167.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -978,8 +999,9 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1025,9 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1068,8 +1091,11 @@
       <c r="U13" s="9">
         <v>5053.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13" s="9">
+        <v>4992.7299999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1133,8 +1159,11 @@
       <c r="U14" s="9">
         <v>3205.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14" s="9">
+        <v>3218.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1198,8 +1227,11 @@
       <c r="U15" s="9">
         <v>384.38</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15" s="9">
+        <v>378.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1263,8 +1295,11 @@
       <c r="U16" s="9">
         <v>184.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16" s="9">
+        <v>186.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1285,8 +1320,9 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1310,8 +1346,9 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1375,8 +1412,11 @@
       <c r="U19" s="9">
         <v>1441.36</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V19" s="9">
+        <v>1444.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1440,8 +1480,11 @@
       <c r="U20" s="9">
         <v>128.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V20" s="9">
+        <v>120.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1462,8 +1505,9 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1487,8 +1531,9 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1552,8 +1597,11 @@
       <c r="U23" s="9">
         <v>1849.97</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23" s="9">
+        <v>1862.57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1616,6 +1664,9 @@
       </c>
       <c r="U24" s="9">
         <v>124.19</v>
+      </c>
+      <c r="V24" s="9">
+        <v>126.66</v>
       </c>
     </row>
   </sheetData>

--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>21.05. - 27.05.</t>
+  </si>
+  <si>
+    <t>28.05. - 03.06.</t>
   </si>
 </sst>
 </file>
@@ -517,12 +520,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5115" topLeftCell="J1" activePane="topRight"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="N28" sqref="N28:N29"/>
+      <pane xSplit="5100" topLeftCell="P1" activePane="topRight"/>
+      <selection activeCell="X8" sqref="X8"/>
+      <selection pane="topRight" activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -541,10 +544,11 @@
     <col min="19" max="19" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="4"/>
+    <col min="23" max="23" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -556,7 +560,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -566,7 +570,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -630,8 +634,11 @@
       <c r="V3" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,8 +663,9 @@
       <c r="T4" s="13"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="9"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -724,8 +732,11 @@
       <c r="V5" s="9">
         <v>6436.63</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="12">
+        <v>6552.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -792,8 +803,11 @@
       <c r="V6" s="9">
         <v>498.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="12">
+        <v>506.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -815,8 +829,9 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="12"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -841,8 +856,9 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -909,8 +925,11 @@
       <c r="V9" s="9">
         <v>2535.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="12">
+        <v>2619.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -977,8 +996,11 @@
       <c r="V10" s="9">
         <v>167.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="12">
+        <v>187.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1000,8 +1022,9 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="12"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1026,8 +1049,9 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1094,8 +1118,11 @@
       <c r="V13" s="9">
         <v>4992.7299999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13" s="12">
+        <v>5015.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1162,8 +1189,11 @@
       <c r="V14" s="9">
         <v>3218.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14" s="12">
+        <v>3254.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1230,8 +1260,11 @@
       <c r="V15" s="9">
         <v>378.57</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15" s="12">
+        <v>380.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1298,8 +1331,11 @@
       <c r="V16" s="9">
         <v>186.29</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16" s="12">
+        <v>186.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1321,8 +1357,9 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W17" s="12"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1347,8 +1384,9 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W18" s="12"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1415,8 +1453,11 @@
       <c r="V19" s="9">
         <v>1444.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W19" s="12">
+        <v>1536.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1483,8 +1524,11 @@
       <c r="V20" s="9">
         <v>120.36</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W20" s="12">
+        <v>127.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1506,8 +1550,9 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W21" s="12"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1532,8 +1577,9 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W22" s="12"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1600,8 +1646,11 @@
       <c r="V23" s="9">
         <v>1862.57</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W23" s="12">
+        <v>1928.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1667,6 +1716,9 @@
       </c>
       <c r="V24" s="9">
         <v>126.66</v>
+      </c>
+      <c r="W24" s="12">
+        <v>144.28</v>
       </c>
     </row>
   </sheetData>

--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>28.05. - 03.06.</t>
+  </si>
+  <si>
+    <t>04.06. - 10.06.</t>
   </si>
 </sst>
 </file>
@@ -520,12 +523,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5100" topLeftCell="P1" activePane="topRight"/>
+      <pane xSplit="5100" topLeftCell="O1" activePane="topRight"/>
       <selection activeCell="X8" sqref="X8"/>
-      <selection pane="topRight" activeCell="W28" sqref="W28"/>
+      <selection pane="topRight" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -545,10 +548,11 @@
     <col min="20" max="20" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="4"/>
+    <col min="24" max="24" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -560,7 +564,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -570,7 +574,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -637,8 +641,11 @@
       <c r="W3" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,8 +671,9 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -735,8 +743,11 @@
       <c r="W5" s="12">
         <v>6552.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" s="9">
+        <v>6699.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -806,8 +817,11 @@
       <c r="W6" s="12">
         <v>506.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" s="9">
+        <v>514.16999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -830,8 +844,9 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="12"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -857,8 +872,9 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="12"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -928,8 +944,11 @@
       <c r="W9" s="12">
         <v>2619.84</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9" s="9">
+        <v>2837.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -999,8 +1018,11 @@
       <c r="W10" s="12">
         <v>187.38</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10" s="9">
+        <v>212.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1023,8 +1045,9 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="12"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1050,8 +1073,9 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="12"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1121,8 +1145,11 @@
       <c r="W13" s="12">
         <v>5015.45</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13" s="9">
+        <v>5080.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1192,8 +1219,11 @@
       <c r="W14" s="12">
         <v>3254.46</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14" s="9">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1263,8 +1293,11 @@
       <c r="W15" s="12">
         <v>380.02</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15" s="9">
+        <v>372.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1334,8 +1367,11 @@
       <c r="W16" s="12">
         <v>186.83</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16" s="9">
+        <v>183.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1358,8 +1394,9 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="12"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1385,8 +1422,9 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="12"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1456,8 +1494,11 @@
       <c r="W19" s="12">
         <v>1536.39</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X19" s="9">
+        <v>1618.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1527,8 +1568,11 @@
       <c r="W20" s="12">
         <v>127.89</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X20" s="9">
+        <v>142.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1551,8 +1595,9 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="12"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1578,8 +1623,9 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="12"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1649,8 +1695,11 @@
       <c r="W23" s="12">
         <v>1928.02</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X23" s="9">
+        <v>2089.63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1719,6 +1768,9 @@
       </c>
       <c r="W24" s="12">
         <v>144.28</v>
+      </c>
+      <c r="X24" s="9">
+        <v>163.95</v>
       </c>
     </row>
   </sheetData>

--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>04.06. - 10.06.</t>
+  </si>
+  <si>
+    <t>11.06. - 17.06.</t>
   </si>
 </sst>
 </file>
@@ -523,12 +526,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5100" topLeftCell="O1" activePane="topRight"/>
+      <pane xSplit="5100" topLeftCell="N1" activePane="topRight"/>
       <selection activeCell="X8" sqref="X8"/>
-      <selection pane="topRight" activeCell="Y4" sqref="Y4"/>
+      <selection pane="topRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -548,11 +551,11 @@
     <col min="20" max="20" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="4"/>
+    <col min="24" max="25" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -564,7 +567,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -574,7 +577,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -644,8 +647,11 @@
       <c r="X3" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,8 +678,9 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4" s="9"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -746,8 +753,11 @@
       <c r="X5" s="9">
         <v>6699.92</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5" s="9">
+        <v>6896.7300000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -820,8 +830,11 @@
       <c r="X6" s="9">
         <v>514.16999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6" s="9">
+        <v>503.36999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -845,8 +858,9 @@
       <c r="V7" s="9"/>
       <c r="W7" s="12"/>
       <c r="X7" s="9"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -873,8 +887,9 @@
       <c r="V8" s="9"/>
       <c r="W8" s="12"/>
       <c r="X8" s="9"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -947,8 +962,11 @@
       <c r="X9" s="9">
         <v>2837.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9" s="9">
+        <v>2870.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1021,8 +1039,11 @@
       <c r="X10" s="9">
         <v>212.98</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10" s="9">
+        <v>223.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1046,8 +1067,9 @@
       <c r="V11" s="9"/>
       <c r="W11" s="12"/>
       <c r="X11" s="9"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1074,8 +1096,9 @@
       <c r="V12" s="9"/>
       <c r="W12" s="12"/>
       <c r="X12" s="9"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12" s="9"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1148,8 +1171,11 @@
       <c r="X13" s="9">
         <v>5080.97</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13" s="9">
+        <v>5245.1649999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1222,8 +1248,11 @@
       <c r="X14" s="9">
         <v>3345.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14" s="9">
+        <v>3464.6180000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1296,8 +1325,11 @@
       <c r="X15" s="9">
         <v>372.78</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15" s="9">
+        <v>375.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1370,8 +1402,11 @@
       <c r="X16" s="9">
         <v>183.88</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16" s="9">
+        <v>186.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1395,8 +1430,9 @@
       <c r="V17" s="9"/>
       <c r="W17" s="12"/>
       <c r="X17" s="9"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y17" s="9"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1423,8 +1459,9 @@
       <c r="V18" s="9"/>
       <c r="W18" s="12"/>
       <c r="X18" s="9"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y18" s="9"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1497,8 +1534,11 @@
       <c r="X19" s="9">
         <v>1618.94</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y19" s="9">
+        <v>1650.5650000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1571,8 +1611,11 @@
       <c r="X20" s="9">
         <v>142.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y20" s="9">
+        <v>127.97999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1596,8 +1639,9 @@
       <c r="V21" s="9"/>
       <c r="W21" s="12"/>
       <c r="X21" s="9"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y21" s="9"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1624,8 +1668,9 @@
       <c r="V22" s="9"/>
       <c r="W22" s="12"/>
       <c r="X22" s="9"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y22" s="9"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1698,8 +1743,11 @@
       <c r="X23" s="9">
         <v>2089.63</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y23" s="9">
+        <v>2004.3820000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1771,6 +1819,9 @@
       </c>
       <c r="X24" s="9">
         <v>163.95</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>161.75999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>11.06. - 17.06.</t>
+  </si>
+  <si>
+    <t>18.06. - 24.06.</t>
   </si>
 </sst>
 </file>
@@ -526,12 +529,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5100" topLeftCell="N1" activePane="topRight"/>
-      <selection activeCell="X8" sqref="X8"/>
-      <selection pane="topRight" activeCell="Y9" sqref="Y9"/>
+      <pane xSplit="5100" topLeftCell="T1" activePane="topRight"/>
+      <selection sqref="A1:H1"/>
+      <selection pane="topRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -552,10 +555,11 @@
     <col min="21" max="22" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="4"/>
+    <col min="26" max="26" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -567,7 +571,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -577,7 +581,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -650,8 +654,11 @@
       <c r="Y3" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,8 +686,9 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4" s="9"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -756,8 +764,11 @@
       <c r="Y5" s="9">
         <v>6896.7300000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5" s="9">
+        <v>7014.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -833,8 +844,11 @@
       <c r="Y6" s="9">
         <v>503.36999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6" s="9">
+        <v>498.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -859,8 +873,9 @@
       <c r="W7" s="12"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -888,8 +903,9 @@
       <c r="W8" s="12"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -965,8 +981,11 @@
       <c r="Y9" s="9">
         <v>2870.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z9" s="9">
+        <v>3215.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1042,8 +1061,11 @@
       <c r="Y10" s="9">
         <v>223.09</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10" s="9">
+        <v>259.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1068,8 +1090,9 @@
       <c r="W11" s="12"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11" s="9"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +1120,9 @@
       <c r="W12" s="12"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12" s="9"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1174,8 +1198,11 @@
       <c r="Y13" s="9">
         <v>5245.1649999999991</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13" s="9">
+        <v>5375.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1251,8 +1278,11 @@
       <c r="Y14" s="9">
         <v>3464.6180000000008</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14" s="9">
+        <v>3552.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1328,8 +1358,11 @@
       <c r="Y15" s="9">
         <v>375.39</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15" s="9">
+        <v>377.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1405,8 +1438,11 @@
       <c r="Y16" s="9">
         <v>186.88</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16" s="9">
+        <v>187.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1431,8 +1467,9 @@
       <c r="W17" s="12"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1460,8 +1497,9 @@
       <c r="W18" s="12"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1537,8 +1575,11 @@
       <c r="Y19" s="9">
         <v>1650.5650000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19" s="9">
+        <v>1637.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1614,8 +1655,11 @@
       <c r="Y20" s="9">
         <v>127.97999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20" s="9">
+        <v>120.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1640,8 +1684,9 @@
       <c r="W21" s="12"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21" s="9"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1669,8 +1714,9 @@
       <c r="W22" s="12"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22" s="9"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1746,8 +1792,11 @@
       <c r="Y23" s="9">
         <v>2004.3820000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23" s="9">
+        <v>1967.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1822,6 +1871,9 @@
       </c>
       <c r="Y24" s="9">
         <v>161.75999999999996</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>155.69</v>
       </c>
     </row>
   </sheetData>

--- a/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
+++ b/Aggregierte_Wochenzahlen_SPA-Mitglieder_Zahlungen_mit_inländische Kreditkarten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Zahlungen im Inland</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>18.06. - 24.06.</t>
+  </si>
+  <si>
+    <t>25.06. - 01.07.</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +225,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -529,12 +533,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5100" topLeftCell="T1" activePane="topRight"/>
+      <pane xSplit="5100" topLeftCell="P1" activePane="topRight"/>
       <selection sqref="A1:H1"/>
-      <selection pane="topRight" activeCell="L32" sqref="L32"/>
+      <selection pane="topRight" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -556,22 +560,24 @@
     <col min="23" max="23" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.42578125" style="4"/>
+    <col min="27" max="27" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" style="14"/>
+    <col min="29" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -581,7 +587,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -657,8 +663,11 @@
       <c r="Z3" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,8 +696,9 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -767,8 +777,11 @@
       <c r="Z5" s="9">
         <v>7014.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5" s="9">
+        <v>7109.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -847,8 +860,11 @@
       <c r="Z6" s="9">
         <v>498.91</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6" s="9">
+        <v>513.91999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -874,8 +890,9 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -904,8 +921,9 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -984,8 +1002,11 @@
       <c r="Z9" s="9">
         <v>3215.88</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9" s="9">
+        <v>3438.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1064,8 +1085,11 @@
       <c r="Z10" s="9">
         <v>259.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10" s="9">
+        <v>278.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1091,8 +1115,9 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1121,8 +1146,9 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12" s="9"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1201,8 +1227,11 @@
       <c r="Z13" s="9">
         <v>5375.93</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13" s="9">
+        <v>5377.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1281,8 +1310,11 @@
       <c r="Z14" s="9">
         <v>3552.08</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14" s="9">
+        <v>3569.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1361,8 +1393,11 @@
       <c r="Z15" s="9">
         <v>377.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15" s="9">
+        <v>386.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1441,8 +1476,11 @@
       <c r="Z16" s="9">
         <v>187.18</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16" s="9">
+        <v>191.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1468,8 +1506,9 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA17" s="9"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1498,8 +1537,9 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA18" s="9"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1578,8 +1618,11 @@
       <c r="Z19" s="9">
         <v>1637.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA19" s="9">
+        <v>1730.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1658,8 +1701,11 @@
       <c r="Z20" s="9">
         <v>120.66</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA20" s="9">
+        <v>127.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1685,8 +1731,9 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA21" s="9"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1715,8 +1762,9 @@
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22" s="9"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1795,8 +1843,11 @@
       <c r="Z23" s="9">
         <v>1967.59</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA23" s="9">
+        <v>2049.1999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1874,6 +1925,9 @@
       </c>
       <c r="Z24" s="9">
         <v>155.69</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>165.34</v>
       </c>
     </row>
   </sheetData>
